--- a/runs/2-ner_train-summary-chris137.xlsx
+++ b/runs/2-ner_train-summary-chris137.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t xml:space="preserve">env_host</t>
   </si>
@@ -136,9 +136,6 @@
     <t xml:space="preserve">01:30:33.463</t>
   </si>
   <si>
-    <t xml:space="preserve">01:12:50.810</t>
-  </si>
-  <si>
     <t xml:space="preserve">01:11:12.451</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">01:32:40.352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:12:38.742</t>
   </si>
   <si>
     <t xml:space="preserve">01:12:06.411</t>
@@ -180,7 +174,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -213,6 +207,15 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="Bitstream Vera Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -323,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,6 +411,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,11 +435,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,7 +464,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -463,16 +474,16 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="7.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="1" width="9.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="6" width="9.14"/>
   </cols>
@@ -622,7 +633,7 @@
       <c r="J4" s="4" t="n">
         <v>0.0248974822461605</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="21" t="n">
         <v>92.9706824601986</v>
       </c>
       <c r="L4" s="20" t="n">
@@ -736,7 +747,7 @@
       <c r="J7" s="4" t="n">
         <v>0.0246649589389562</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="21" t="n">
         <v>93.0968033133601</v>
       </c>
       <c r="L7" s="20" t="n">
@@ -888,7 +899,7 @@
       <c r="J11" s="4" t="n">
         <v>0.026351548731327</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="21" t="n">
         <v>90.2989579947329</v>
       </c>
       <c r="L11" s="20" t="n">
@@ -1010,40 +1021,40 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="22" t="n">
-        <v>128</v>
-      </c>
-      <c r="D15" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="C15" s="23" t="n">
+        <v>128</v>
+      </c>
+      <c r="D15" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="23" t="n">
+      <c r="G15" s="24" t="n">
         <v>5E-005</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="24" t="n">
+      <c r="I15" s="25" t="n">
         <v>9.7000002861023</v>
       </c>
-      <c r="J15" s="25" t="n">
+      <c r="J15" s="26" t="n">
         <v>0.0297354273498058</v>
       </c>
-      <c r="K15" s="26" t="n">
+      <c r="K15" s="27" t="n">
         <v>90.4216182844632</v>
       </c>
-      <c r="L15" s="27" t="n">
+      <c r="L15" s="28" t="n">
         <v>60.1984979190434</v>
       </c>
     </row>
@@ -1192,7 +1203,7 @@
       <c r="J19" s="4" t="n">
         <v>0.022998571395874</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="21" t="n">
         <v>93.0565847789441</v>
       </c>
       <c r="L19" s="20" t="n">
@@ -1219,98 +1230,98 @@
         <v>21</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3E-005</v>
+        <v>4E-005</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>6.99999988079071</v>
+        <v>4.30000007152557</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>0.0227509662508964</v>
+        <v>0.0207520611584186</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>93.0732509157503</v>
+        <v>93.1691401018742</v>
       </c>
       <c r="L20" s="20" t="n">
-        <v>86.717912676782</v>
+        <v>86.5656332803962</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="C21" s="23" t="n">
+        <v>128</v>
+      </c>
+      <c r="D21" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="24" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="25" t="n">
+        <v>2.80000001192093</v>
+      </c>
+      <c r="J21" s="26" t="n">
+        <v>0.0191839281469583</v>
+      </c>
+      <c r="K21" s="27" t="n">
+        <v>93.1808508883236</v>
+      </c>
+      <c r="L21" s="28" t="n">
+        <v>86.9350100117179</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>4E-005</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>4.30000007152557</v>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v>0.0207520611584186</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>93.1691401018742</v>
-      </c>
-      <c r="L21" s="20" t="n">
-        <v>86.5656332803962</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="22" t="n">
-        <v>128</v>
-      </c>
-      <c r="D22" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="23" t="n">
-        <v>5E-005</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="24" t="n">
-        <v>2.80000001192093</v>
-      </c>
-      <c r="J22" s="25" t="n">
-        <v>0.0191839281469583</v>
-      </c>
-      <c r="K22" s="26" t="n">
-        <v>93.1808508883236</v>
-      </c>
-      <c r="L22" s="27" t="n">
-        <v>86.9350100117179</v>
+      <c r="H22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>6.5933</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>0.0222365669906139</v>
+      </c>
+      <c r="K22" s="21" t="n">
+        <v>93.5147664732093</v>
+      </c>
+      <c r="L22" s="20" t="n">
+        <v>87.5029263709205</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1318,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>128</v>
@@ -1333,22 +1344,22 @@
         <v>15</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4E-005</v>
+        <v>5E-005</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>6.5933</v>
+        <v>3.5072</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>0.0222365669906139</v>
+        <v>0.0211645942181348</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>93.5147664732093</v>
+        <v>93.3342579606693</v>
       </c>
       <c r="L23" s="20" t="n">
-        <v>87.5029263709205</v>
+        <v>87.1504085249914</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1356,7 +1367,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>128</v>
@@ -1368,25 +1379,25 @@
         <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>5E-005</v>
+        <v>4E-005</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>3.5072</v>
+        <v>2.9904</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>0.0211645942181348</v>
+        <v>0.0204656310379505</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>93.3342579606693</v>
+        <v>93.4849400764691</v>
       </c>
       <c r="L24" s="20" t="n">
-        <v>87.1504085249914</v>
+        <v>87.4355344391847</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1394,7 +1405,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>128</v>
@@ -1409,22 +1420,22 @@
         <v>18</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4E-005</v>
+        <v>5E-005</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>2.9904</v>
+        <v>2.9091</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>0.0204656310379505</v>
+        <v>0.0201531294733285</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>93.4849400764691</v>
+        <v>93.3536665236308</v>
       </c>
       <c r="L25" s="20" t="n">
-        <v>87.4355344391847</v>
+        <v>87.1176131169544</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1432,7 +1443,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>128</v>
@@ -1444,142 +1455,116 @@
         <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5E-005</v>
+        <v>4E-005</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>2.9091</v>
+        <v>5</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>0.0201531294733285</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>93.3536665236308</v>
+        <v>0.0210751555860042</v>
+      </c>
+      <c r="K26" s="21" t="n">
+        <v>93.474599823807</v>
       </c>
       <c r="L26" s="20" t="n">
-        <v>87.1176131169544</v>
+        <v>87.2674512306843</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="A27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="23" t="n">
+        <v>128</v>
+      </c>
+      <c r="D27" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>3E-005</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="24" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="H27" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <v>0.0208025556057691</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>93.5188031765671</v>
-      </c>
-      <c r="L27" s="20" t="n">
-        <v>87.5007987442176</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>4E-005</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>0.0210751555860042</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>93.474599823807</v>
-      </c>
-      <c r="L28" s="20" t="n">
-        <v>87.2674512306843</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="22" t="n">
-        <v>128</v>
-      </c>
-      <c r="D29" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="23" t="n">
-        <v>5E-005</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="24" t="n">
+      <c r="I27" s="25" t="n">
         <v>5.09999990463257</v>
       </c>
-      <c r="J29" s="25" t="n">
+      <c r="J27" s="26" t="n">
         <v>0.0224318336695432</v>
       </c>
-      <c r="K29" s="26" t="n">
+      <c r="K27" s="29" t="n">
         <v>93.3402821055923</v>
       </c>
-      <c r="L29" s="27" t="n">
+      <c r="L27" s="28" t="n">
         <v>87.3426021319668</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <conditionalFormatting sqref="K2:K8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:K15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:K27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
